--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H2">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I2">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J2">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>2057.060327791677</v>
+        <v>3151.131784463989</v>
       </c>
       <c r="R2">
-        <v>2057.060327791677</v>
+        <v>28360.1860601759</v>
       </c>
       <c r="S2">
-        <v>0.04232796677667554</v>
+        <v>0.05465445768133013</v>
       </c>
       <c r="T2">
-        <v>0.04232796677667554</v>
+        <v>0.05465445768133014</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H3">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I3">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J3">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>4081.217895637833</v>
+        <v>4841.09544678061</v>
       </c>
       <c r="R3">
-        <v>4081.217895637833</v>
+        <v>43569.85902102549</v>
       </c>
       <c r="S3">
-        <v>0.08397889607855322</v>
+        <v>0.08396584602771777</v>
       </c>
       <c r="T3">
-        <v>0.08397889607855322</v>
+        <v>0.0839658460277178</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H4">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I4">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J4">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>1915.96449509724</v>
+        <v>2419.061548028722</v>
       </c>
       <c r="R4">
-        <v>1915.96449509724</v>
+        <v>21771.5539322585</v>
       </c>
       <c r="S4">
-        <v>0.03942464904800738</v>
+        <v>0.04195714620921774</v>
       </c>
       <c r="T4">
-        <v>0.03942464904800738</v>
+        <v>0.04195714620921774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H5">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I5">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J5">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>2150.508901231452</v>
+        <v>2539.061776637363</v>
       </c>
       <c r="R5">
-        <v>2150.508901231452</v>
+        <v>22851.55598973627</v>
       </c>
       <c r="S5">
-        <v>0.04425085064082205</v>
+        <v>0.04403847693888651</v>
       </c>
       <c r="T5">
-        <v>0.04425085064082205</v>
+        <v>0.04403847693888652</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H6">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I6">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J6">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>1605.89260946514</v>
+        <v>1934.122722551353</v>
       </c>
       <c r="R6">
-        <v>1605.89260946514</v>
+        <v>17407.10450296219</v>
       </c>
       <c r="S6">
-        <v>0.03304432451590846</v>
+        <v>0.03354617823708795</v>
       </c>
       <c r="T6">
-        <v>0.03304432451590846</v>
+        <v>0.03354617823708796</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H7">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I7">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J7">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>3035.023082556635</v>
+        <v>3850.366389421441</v>
       </c>
       <c r="R7">
-        <v>3035.023082556635</v>
+        <v>34653.29750479297</v>
       </c>
       <c r="S7">
-        <v>0.06245142860871445</v>
+        <v>0.06678225516488391</v>
       </c>
       <c r="T7">
-        <v>0.06245142860871445</v>
+        <v>0.06678225516488391</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H8">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I8">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J8">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>788.0290648454377</v>
+        <v>1029.631957294064</v>
       </c>
       <c r="R8">
-        <v>788.0290648454377</v>
+        <v>9266.687615646573</v>
       </c>
       <c r="S8">
-        <v>0.01621521139909436</v>
+        <v>0.01785833791995652</v>
       </c>
       <c r="T8">
-        <v>0.01621521139909436</v>
+        <v>0.01785833791995653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H9">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I9">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J9">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>1563.453574150913</v>
+        <v>1581.82739449089</v>
       </c>
       <c r="R9">
-        <v>1563.453574150913</v>
+        <v>14236.44655041801</v>
       </c>
       <c r="S9">
-        <v>0.0321710598612237</v>
+        <v>0.02743583077598163</v>
       </c>
       <c r="T9">
-        <v>0.0321710598612237</v>
+        <v>0.02743583077598164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H10">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I10">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J10">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>733.9773602893786</v>
+        <v>790.4280896126658</v>
       </c>
       <c r="R10">
-        <v>733.9773602893786</v>
+        <v>7113.852806513992</v>
       </c>
       <c r="S10">
-        <v>0.01510299377292115</v>
+        <v>0.01370949281996421</v>
       </c>
       <c r="T10">
-        <v>0.01510299377292115</v>
+        <v>0.01370949281996421</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H11">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I11">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J11">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>823.8278165611647</v>
+        <v>829.6381508570789</v>
       </c>
       <c r="R11">
-        <v>823.8278165611647</v>
+        <v>7466.74335771371</v>
       </c>
       <c r="S11">
-        <v>0.01695183946624321</v>
+        <v>0.01438956740254142</v>
       </c>
       <c r="T11">
-        <v>0.01695183946624321</v>
+        <v>0.01438956740254143</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H12">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I12">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J12">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>615.193455525711</v>
+        <v>631.9743827553752</v>
       </c>
       <c r="R12">
-        <v>615.193455525711</v>
+        <v>5687.769444798377</v>
       </c>
       <c r="S12">
-        <v>0.01265878681092217</v>
+        <v>0.01096120997804086</v>
       </c>
       <c r="T12">
-        <v>0.01265878681092217</v>
+        <v>0.01096120997804086</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H13">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I13">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J13">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>1162.671978657514</v>
+        <v>1258.106786071353</v>
       </c>
       <c r="R13">
-        <v>1162.671978657514</v>
+        <v>11322.96107464217</v>
       </c>
       <c r="S13">
-        <v>0.02392420884302369</v>
+        <v>0.02182109438803663</v>
       </c>
       <c r="T13">
-        <v>0.02392420884302369</v>
+        <v>0.02182109438803663</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H14">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I14">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J14">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>1587.259014278055</v>
+        <v>2430.639170885594</v>
       </c>
       <c r="R14">
-        <v>1587.259014278055</v>
+        <v>21875.75253797035</v>
       </c>
       <c r="S14">
-        <v>0.03266090250958566</v>
+        <v>0.04215795301190401</v>
       </c>
       <c r="T14">
-        <v>0.03266090250958566</v>
+        <v>0.04215795301190401</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H15">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I15">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J15">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>3149.129758891593</v>
+        <v>3734.199972516357</v>
       </c>
       <c r="R15">
-        <v>3149.129758891593</v>
+        <v>33607.79975264722</v>
       </c>
       <c r="S15">
-        <v>0.06479939261329375</v>
+        <v>0.06476741955945695</v>
       </c>
       <c r="T15">
-        <v>0.06479939261329375</v>
+        <v>0.06476741955945695</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H16">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I16">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J16">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>1478.387325249013</v>
+        <v>1865.95361844631</v>
       </c>
       <c r="R16">
-        <v>1478.387325249013</v>
+        <v>16793.58256601678</v>
       </c>
       <c r="S16">
-        <v>0.03042065842248637</v>
+        <v>0.03236382672965423</v>
       </c>
       <c r="T16">
-        <v>0.03042065842248637</v>
+        <v>0.03236382672965422</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H17">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I17">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J17">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>1659.365353873327</v>
+        <v>1958.516315319047</v>
       </c>
       <c r="R17">
-        <v>1659.365353873327</v>
+        <v>17626.64683787142</v>
       </c>
       <c r="S17">
-        <v>0.0341446289251609</v>
+        <v>0.03396927021635415</v>
       </c>
       <c r="T17">
-        <v>0.0341446289251609</v>
+        <v>0.03396927021635415</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H18">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I18">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J18">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>1239.131145498515</v>
+        <v>1491.893951852884</v>
       </c>
       <c r="R18">
-        <v>1239.131145498515</v>
+        <v>13427.04556667596</v>
       </c>
       <c r="S18">
-        <v>0.02549750303867449</v>
+        <v>0.02587599009936224</v>
       </c>
       <c r="T18">
-        <v>0.02549750303867449</v>
+        <v>0.02587599009936223</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H19">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I19">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J19">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>2341.869939955332</v>
+        <v>2969.996816550483</v>
       </c>
       <c r="R19">
-        <v>2341.869939955332</v>
+        <v>26729.97134895435</v>
       </c>
       <c r="S19">
-        <v>0.04818847151660356</v>
+        <v>0.05151278220864858</v>
       </c>
       <c r="T19">
-        <v>0.04818847151660356</v>
+        <v>0.05151278220864857</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H20">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I20">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J20">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>1089.13794277079</v>
+        <v>1471.966987661752</v>
       </c>
       <c r="R20">
-        <v>1089.13794277079</v>
+        <v>13247.70288895577</v>
       </c>
       <c r="S20">
-        <v>0.0224111048343972</v>
+        <v>0.02553036906679509</v>
       </c>
       <c r="T20">
-        <v>0.0224111048343972</v>
+        <v>0.02553036906679509</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H21">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I21">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J21">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>2160.855081788577</v>
+        <v>2261.388342091446</v>
       </c>
       <c r="R21">
-        <v>2160.855081788577</v>
+        <v>20352.49507882302</v>
       </c>
       <c r="S21">
-        <v>0.04446374317536312</v>
+        <v>0.03922240067941617</v>
       </c>
       <c r="T21">
-        <v>0.04446374317536312</v>
+        <v>0.03922240067941618</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H22">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I22">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J22">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>1014.432878034393</v>
+        <v>1129.999943948998</v>
       </c>
       <c r="R22">
-        <v>1014.432878034393</v>
+        <v>10169.99949554098</v>
       </c>
       <c r="S22">
-        <v>0.02087390465825738</v>
+        <v>0.01959915939439877</v>
       </c>
       <c r="T22">
-        <v>0.02087390465825738</v>
+        <v>0.01959915939439877</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H23">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I23">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J23">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>1138.615532541005</v>
+        <v>1186.054843301241</v>
       </c>
       <c r="R23">
-        <v>1138.615532541005</v>
+        <v>10674.49358971117</v>
       </c>
       <c r="S23">
-        <v>0.02342920126437986</v>
+        <v>0.02057139741363461</v>
       </c>
       <c r="T23">
-        <v>0.02342920126437986</v>
+        <v>0.02057139741363462</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H24">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I24">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J24">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>850.261195237443</v>
+        <v>903.4737333800006</v>
       </c>
       <c r="R24">
-        <v>850.261195237443</v>
+        <v>8131.263600420006</v>
       </c>
       <c r="S24">
-        <v>0.0174957569971432</v>
+        <v>0.01567020051990939</v>
       </c>
       <c r="T24">
-        <v>0.0174957569971432</v>
+        <v>0.01567020051990939</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H25">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I25">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J25">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>1606.933327009531</v>
+        <v>1798.595743781247</v>
       </c>
       <c r="R25">
-        <v>1606.933327009531</v>
+        <v>16187.36169403122</v>
       </c>
       <c r="S25">
-        <v>0.03306573927805605</v>
+        <v>0.03119554550176765</v>
       </c>
       <c r="T25">
-        <v>0.03306573927805605</v>
+        <v>0.03119554550176765</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H26">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I26">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J26">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>1029.846591242091</v>
+        <v>1363.214083792218</v>
       </c>
       <c r="R26">
-        <v>1029.846591242091</v>
+        <v>12268.92675412996</v>
       </c>
       <c r="S26">
-        <v>0.02119107140915235</v>
+        <v>0.02364411632053926</v>
       </c>
       <c r="T26">
-        <v>0.02119107140915235</v>
+        <v>0.02364411632053926</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H27">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I27">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J27">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>2043.220746204819</v>
+        <v>2094.310852554927</v>
       </c>
       <c r="R27">
-        <v>2043.220746204819</v>
+        <v>18848.79767299435</v>
       </c>
       <c r="S27">
-        <v>0.04204319080695935</v>
+        <v>0.03632454358997368</v>
       </c>
       <c r="T27">
-        <v>0.04204319080695935</v>
+        <v>0.03632454358997369</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H28">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I28">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J28">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>959.208379821805</v>
+        <v>1046.512490557072</v>
       </c>
       <c r="R28">
-        <v>959.208379821805</v>
+        <v>9418.612415013647</v>
       </c>
       <c r="S28">
-        <v>0.01973755455028051</v>
+        <v>0.01815112046729715</v>
       </c>
       <c r="T28">
-        <v>0.01973755455028051</v>
+        <v>0.01815112046729715</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H29">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I29">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J29">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>1076.630680903041</v>
+        <v>1098.42590227286</v>
       </c>
       <c r="R29">
-        <v>1076.630680903041</v>
+        <v>9885.83312045574</v>
       </c>
       <c r="S29">
-        <v>0.022153743901588</v>
+        <v>0.01905152691100817</v>
       </c>
       <c r="T29">
-        <v>0.022153743901588</v>
+        <v>0.01905152691100817</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H30">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I30">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J30">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>803.974004755599</v>
+        <v>836.7226493553478</v>
       </c>
       <c r="R30">
-        <v>803.974004755599</v>
+        <v>7530.503844198131</v>
       </c>
       <c r="S30">
-        <v>0.01654330915959997</v>
+        <v>0.01451244370535938</v>
       </c>
       <c r="T30">
-        <v>0.01654330915959997</v>
+        <v>0.01451244370535938</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H31">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I31">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J31">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>1519.453821399326</v>
+        <v>1665.71062362355</v>
       </c>
       <c r="R31">
-        <v>1519.453821399326</v>
+        <v>14991.39561261195</v>
       </c>
       <c r="S31">
-        <v>0.03126568044794684</v>
+        <v>0.0288907341917663</v>
       </c>
       <c r="T31">
-        <v>0.03126568044794684</v>
+        <v>0.0288907341917663</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H32">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I32">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J32">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>182.5711336366442</v>
+        <v>250.8663177052733</v>
       </c>
       <c r="R32">
-        <v>182.5711336366442</v>
+        <v>2257.79685934746</v>
       </c>
       <c r="S32">
-        <v>0.003756751697821126</v>
+        <v>0.004351123178120662</v>
       </c>
       <c r="T32">
-        <v>0.003756751697821126</v>
+        <v>0.004351123178120662</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H33">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I33">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J33">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>362.2220348902756</v>
+        <v>385.4068542551288</v>
       </c>
       <c r="R33">
-        <v>362.2220348902756</v>
+        <v>3468.66168829616</v>
       </c>
       <c r="S33">
-        <v>0.00745341400612929</v>
+        <v>0.00668464667515153</v>
       </c>
       <c r="T33">
-        <v>0.00745341400612929</v>
+        <v>0.00668464667515153</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H34">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I34">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J34">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>170.0483963214562</v>
+        <v>192.5851104826489</v>
       </c>
       <c r="R34">
-        <v>170.0483963214562</v>
+        <v>1733.26599434384</v>
       </c>
       <c r="S34">
-        <v>0.003499072327960665</v>
+        <v>0.003340271207577771</v>
       </c>
       <c r="T34">
-        <v>0.003499072327960665</v>
+        <v>0.00334027120757777</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H35">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I35">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J35">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>190.8650138690934</v>
+        <v>202.1385082882445</v>
       </c>
       <c r="R35">
-        <v>190.8650138690934</v>
+        <v>1819.2465745942</v>
       </c>
       <c r="S35">
-        <v>0.003927414211791106</v>
+        <v>0.003505969062124228</v>
       </c>
       <c r="T35">
-        <v>0.003927414211791106</v>
+        <v>0.003505969062124228</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H36">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I36">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J36">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>142.528456870056</v>
+        <v>153.9784047715067</v>
       </c>
       <c r="R36">
-        <v>142.528456870056</v>
+        <v>1385.80564294356</v>
       </c>
       <c r="S36">
-        <v>0.00293279672240003</v>
+        <v>0.002670661458500231</v>
       </c>
       <c r="T36">
-        <v>0.00293279672240003</v>
+        <v>0.002670661458500231</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H37">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I37">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J37">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>269.3686700917519</v>
+        <v>306.5334311603888</v>
       </c>
       <c r="R37">
-        <v>269.3686700917519</v>
+        <v>2758.800880443499</v>
       </c>
       <c r="S37">
-        <v>0.005542777702859688</v>
+        <v>0.005316635287634653</v>
       </c>
       <c r="T37">
-        <v>0.005542777702859688</v>
+        <v>0.005316635287634652</v>
       </c>
     </row>
   </sheetData>
